--- a/documentacao/Planilhas/Planilha_De_Riscos.xlsx
+++ b/documentacao/Planilhas/Planilha_De_Riscos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ARQUIVOS\TechHumi\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ARQUIVOS\TechHumi\documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Descição de Risco</t>
-  </si>
-  <si>
     <t>Probabilidade</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Evitar</t>
   </si>
   <si>
-    <t>Verificar as conexoes do equipamento</t>
-  </si>
-  <si>
     <t>Queimar  Arduino</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>Planejar hora extra durante a semana ou no fim de semana</t>
+  </si>
+  <si>
+    <t>Verificar as conexões do equipamento</t>
+  </si>
+  <si>
+    <t>Descrição de Risco</t>
   </si>
 </sst>
 </file>
@@ -145,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -353,11 +353,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,6 +432,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -744,7 +762,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,23 +779,23 @@
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -785,22 +803,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,22 +826,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7">
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -831,22 +849,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="11">
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,22 +872,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="7">
         <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -877,22 +895,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="15">
         <v>4</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
